--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fagho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huzaifa\Documents\GitHub\SMTP_Email_Sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6011D-42CF-489F-ADA6-9D58ADFD4756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3957B-570F-4020-9571-BBCF66B11988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="3630" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EMAIL</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>faghost6201@yahoo.com</t>
+  </si>
+  <si>
+    <t>faghost6201@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -368,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,10 +407,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{7BC360BB-EEFA-4201-AECB-CB1CD52872D3}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{BC934692-447C-48EE-B42F-77391F1D53EF}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{EB13C059-0ABC-426A-92C6-CD3C72B654A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
